--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.322997655336</v>
+        <v>595.9143940269121</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46.22299765533656</v>
+        <v>43.91439402691221</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.830266647240232</v>
+        <v>14.49777579177024</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.830266647240232</v>
+        <v>14.49777579177024</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>171.1599999999995</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>105.94</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,9 +587,97 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -758,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -885,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -917,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>34.22809649842574</v>
+        <v>30.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.91114969288709</v>
+        <v>37.01606971056828</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,9 +1081,121 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>85.68999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>96.85999999999979</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>81.12999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>89.87499999999977</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>86.53999999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>107.29</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>101.39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>108.685</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>102.875</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>61.69000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>62.66500000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>66.29000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>64.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>61.57500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.695</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.885</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>111.735</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.685</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>111.695</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>104.885</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>111.735</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>119.5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>114.685</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.29</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>101.39</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>108.685</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>102.875</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>102.84</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>85.68999999999978</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>96.85999999999979</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>81.12999999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>89.87499999999977</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>86.53999999999978</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4.885</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>11.735</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>14.685</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -1629,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.289999999999907</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1640,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1.390000000000001</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1651,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.684999999999889</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1662,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>2.874999999999929</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1673,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2.840000000000003</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1775,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1786,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1797,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1819,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
